--- a/webForm/media/excel/form_data.xlsx
+++ b/webForm/media/excel/form_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1154,6 +1154,158 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>28</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ruslan</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>No, I'd like to know more</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>10.000 - 50.000</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Crypto Atom - up to 1500% profit per year with temporary drawdowns up to 40%</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>["3-6 months", "More than 24 months"]</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>@ruslanslp</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>29</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ruslan</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>No, I'd like to know more</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>10.000 - 50.000</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Crypto Atom - up to 1500% profit per year with temporary drawdowns up to 40%</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>["3-6 months", "More than 24 months"]</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>@ruslanslp</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>30</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ruslan</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>No, I'd like to know more</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>10.000 - 50.000</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Crypto Atom - up to 1500% profit per year with temporary drawdowns up to 40%</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>["3-6 months", "More than 24 months"]</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>@ruslanslp</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>31</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ruslan</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>No, I'd like to know more</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>10.000 - 50.000</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Crypto Atom - up to 1500% profit per year with temporary drawdowns up to 40%</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>["3-6 months", "More than 24 months"]</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>@ruslanslp</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
